--- a/APM files/134802983/134802983 IMPORT 10 RT&RP Cloud.xlsx
+++ b/APM files/134802983/134802983 IMPORT 10 RT&RP Cloud.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987BB28-F700-B944-8337-C6FA50F298BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA855223-7D19-5145-B714-373E8E9ACB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AS$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AR$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="300">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -155,9 +155,6 @@
     <t>BeddingOption1 for Bedroom 3</t>
   </si>
   <si>
-    <t>Value Add 2</t>
-  </si>
-  <si>
     <t>Rate Plan Pricing Model</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t>Free WiFi</t>
-  </si>
-  <si>
-    <t>Full Kitchen</t>
   </si>
   <si>
     <t>Merchant</t>
@@ -850,6 +844,99 @@
   </si>
   <si>
     <t>325835553</t>
+  </si>
+  <si>
+    <t>FJDIB</t>
+  </si>
+  <si>
+    <t>FJALF</t>
+  </si>
+  <si>
+    <t>MAALS</t>
+  </si>
+  <si>
+    <t>BBAYK</t>
+  </si>
+  <si>
+    <t>DWNBE</t>
+  </si>
+  <si>
+    <t>DWNBV</t>
+  </si>
+  <si>
+    <t>Dwnbv</t>
+  </si>
+  <si>
+    <t>MADH</t>
+  </si>
+  <si>
+    <t>BBDP</t>
+  </si>
+  <si>
+    <t>DWNDV</t>
+  </si>
+  <si>
+    <t>MAVIS</t>
+  </si>
+  <si>
+    <t>DWNFO</t>
+  </si>
+  <si>
+    <t>DIFCI</t>
+  </si>
+  <si>
+    <t>MARIM</t>
+  </si>
+  <si>
+    <t>MAARC</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>BBMER</t>
+  </si>
+  <si>
+    <t>MDAR</t>
+  </si>
+  <si>
+    <t>DWNOT</t>
+  </si>
+  <si>
+    <t>PJAZI</t>
+  </si>
+  <si>
+    <t>PJVIL</t>
+  </si>
+  <si>
+    <t>PJROY</t>
+  </si>
+  <si>
+    <t>PJTIT</t>
+  </si>
+  <si>
+    <t>PJTIA</t>
+  </si>
+  <si>
+    <t>DWNRE</t>
+  </si>
+  <si>
+    <t>MASAD</t>
+  </si>
+  <si>
+    <t>MASul</t>
+  </si>
+  <si>
+    <t>MASUN</t>
+  </si>
+  <si>
+    <t>BBWW</t>
+  </si>
+  <si>
+    <t>PJ7Pa</t>
+  </si>
+  <si>
+    <t>FJABR</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1266,16 +1353,16 @@
     <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1284,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1317,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>18</v>
@@ -1329,7 +1416,7 @@
         <v>38</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>10</v>
@@ -1371,7 +1458,7 @@
         <v>25</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>31</v>
@@ -1394,43 +1481,40 @@
       <c r="AN1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AO1" t="s">
         <v>33</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="AQ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>134802983</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1454,106 +1538,103 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V2" t="s">
-        <v>185</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH2">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5" t="s">
-        <v>193</v>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>134802983</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1577,106 +1658,103 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" t="s">
+        <v>183</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V3" t="s">
-        <v>185</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5" t="s">
-        <v>193</v>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>134802983</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1700,112 +1778,109 @@
         <v>2</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="U4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD4" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>43</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>44</v>
       </c>
       <c r="AH4">
         <v>4</v>
       </c>
       <c r="AI4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5" t="s">
-        <v>193</v>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>134802983</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1829,112 +1904,109 @@
         <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>43</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>44</v>
       </c>
       <c r="AH5">
         <v>9</v>
       </c>
       <c r="AI5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5" t="s">
-        <v>193</v>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>134802983</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1958,109 +2030,106 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD6" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>43</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>44</v>
       </c>
       <c r="AH6">
         <v>4</v>
       </c>
       <c r="AI6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5" t="s">
-        <v>193</v>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>134802983</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -2084,109 +2153,106 @@
         <v>2</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD7" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AE7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" t="s">
         <v>42</v>
       </c>
-      <c r="AE7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>43</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>44</v>
       </c>
       <c r="AH7">
         <v>4</v>
       </c>
       <c r="AI7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5" t="s">
-        <v>193</v>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>134802983</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2210,109 +2276,106 @@
         <v>3</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" t="s">
         <v>41</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" t="s">
         <v>42</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>43</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>44</v>
       </c>
       <c r="AH8">
         <v>6</v>
       </c>
       <c r="AI8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5" t="s">
-        <v>193</v>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>134802983</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -2336,109 +2399,106 @@
         <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD9" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AE9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" t="s">
         <v>42</v>
       </c>
-      <c r="AE9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>43</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>44</v>
       </c>
       <c r="AH9">
         <v>4</v>
       </c>
       <c r="AI9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5" t="s">
-        <v>193</v>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>134802983</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -2462,106 +2522,103 @@
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD10" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AE10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" t="s">
         <v>42</v>
       </c>
-      <c r="AE10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>43</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
       </c>
       <c r="AH10">
         <v>4</v>
       </c>
       <c r="AI10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5" t="s">
-        <v>193</v>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>134802983</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -2585,106 +2642,103 @@
         <v>2</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD11" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AE11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" t="s">
         <v>42</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>43</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>44</v>
       </c>
       <c r="AH11">
         <v>4</v>
       </c>
       <c r="AI11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5" t="s">
-        <v>193</v>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>134802983</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -2708,106 +2762,103 @@
         <v>3</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD12" t="s">
         <v>41</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AE12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" t="s">
         <v>42</v>
       </c>
-      <c r="AE12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>43</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>44</v>
       </c>
       <c r="AH12">
         <v>6</v>
       </c>
       <c r="AI12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5" t="s">
-        <v>193</v>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>134802983</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2831,106 +2882,103 @@
         <v>1</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" t="s">
+        <v>183</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V13" t="s">
-        <v>185</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH13">
-        <v>2</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5" t="s">
-        <v>193</v>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>134802983</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2954,106 +3002,103 @@
         <v>1</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" t="s">
+        <v>183</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH14">
+        <v>2</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V14" t="s">
-        <v>185</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH14">
-        <v>2</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5" t="s">
-        <v>193</v>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>134802983</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -3077,106 +3122,103 @@
         <v>3</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD15" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AE15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" t="s">
         <v>42</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>43</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>44</v>
       </c>
       <c r="AH15">
         <v>6</v>
       </c>
       <c r="AI15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5" t="s">
-        <v>193</v>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>134802983</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -3200,106 +3242,103 @@
         <v>3</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD16" t="s">
         <v>41</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AE16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>43</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>44</v>
       </c>
       <c r="AH16">
         <v>6</v>
       </c>
       <c r="AI16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ16" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5" t="s">
-        <v>193</v>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>134802983</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -3323,106 +3362,103 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD17" t="s">
         <v>41</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="AE17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF17" t="s">
         <v>42</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>43</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>44</v>
       </c>
       <c r="AH17">
         <v>4</v>
       </c>
       <c r="AI17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5" t="s">
-        <v>193</v>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>134802983</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -3446,106 +3482,103 @@
         <v>3</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD18" t="s">
         <v>41</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AE18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF18" t="s">
         <v>42</v>
       </c>
-      <c r="AE18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>43</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>44</v>
       </c>
       <c r="AH18">
         <v>6</v>
       </c>
       <c r="AI18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5" t="s">
-        <v>193</v>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>134802983</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -3569,112 +3602,109 @@
         <v>2</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD19" t="s">
         <v>41</v>
       </c>
-      <c r="X19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AE19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" t="s">
         <v>42</v>
       </c>
-      <c r="AE19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>43</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>44</v>
       </c>
       <c r="AH19">
         <v>4</v>
       </c>
       <c r="AI19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5" t="s">
-        <v>193</v>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>134802983</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -3698,106 +3728,103 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="U20" t="s">
+        <v>124</v>
+      </c>
+      <c r="V20" t="s">
         <v>184</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V20" t="s">
-        <v>186</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH20">
-        <v>2</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5" t="s">
-        <v>193</v>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>134802983</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -3821,106 +3848,103 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U21" t="s">
+        <v>124</v>
+      </c>
+      <c r="V21" t="s">
+        <v>183</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21">
+        <v>2</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V21" t="s">
-        <v>185</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH21">
-        <v>2</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5" t="s">
-        <v>193</v>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>134802983</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -3944,106 +3968,103 @@
         <v>2</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD22" t="s">
         <v>41</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AE22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF22" t="s">
         <v>42</v>
       </c>
-      <c r="AE22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>43</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>44</v>
       </c>
       <c r="AH22">
         <v>4</v>
       </c>
       <c r="AI22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5" t="s">
-        <v>193</v>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>134802983</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4067,106 +4088,103 @@
         <v>2</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U23" t="s">
+        <v>124</v>
+      </c>
+      <c r="V23" t="s">
+        <v>183</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23">
+        <v>2</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V23" t="s">
-        <v>185</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH23">
-        <v>2</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5" t="s">
-        <v>193</v>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>134802983</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -4190,106 +4208,103 @@
         <v>1</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U24" t="s">
+        <v>124</v>
+      </c>
+      <c r="V24" t="s">
+        <v>183</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24">
+        <v>2</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V24" t="s">
-        <v>185</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH24">
-        <v>2</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5" t="s">
-        <v>193</v>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>134802983</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4313,106 +4328,103 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="U25" t="s">
+        <v>124</v>
+      </c>
+      <c r="V25" t="s">
         <v>184</v>
       </c>
-      <c r="U25" t="s">
+      <c r="W25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25">
+        <v>2</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V25" t="s">
-        <v>186</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH25">
-        <v>2</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5" t="s">
-        <v>193</v>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>134802983</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -4436,106 +4448,103 @@
         <v>2</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD26" t="s">
         <v>41</v>
       </c>
-      <c r="X26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AE26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF26" t="s">
         <v>42</v>
       </c>
-      <c r="AE26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>43</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>44</v>
       </c>
       <c r="AH26">
         <v>4</v>
       </c>
       <c r="AI26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5" t="s">
-        <v>193</v>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>134802983</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -4559,112 +4568,109 @@
         <v>2</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD27" t="s">
         <v>41</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AE27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF27" t="s">
         <v>42</v>
       </c>
-      <c r="AE27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>43</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>44</v>
       </c>
       <c r="AH27">
         <v>4</v>
       </c>
       <c r="AI27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5" t="s">
-        <v>193</v>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>134802983</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -4688,106 +4694,103 @@
         <v>3</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U28" t="s">
+        <v>124</v>
+      </c>
+      <c r="V28" t="s">
+        <v>183</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V28" t="s">
-        <v>185</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH28">
-        <v>2</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5" t="s">
-        <v>193</v>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>134802983</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -4811,106 +4814,103 @@
         <v>1</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U29" t="s">
+        <v>124</v>
+      </c>
+      <c r="V29" t="s">
+        <v>183</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH29">
+        <v>2</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V29" t="s">
-        <v>185</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH29">
-        <v>2</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5" t="s">
-        <v>193</v>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>134802983</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -4934,112 +4934,109 @@
         <v>2</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD30" t="s">
         <v>41</v>
       </c>
-      <c r="X30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AE30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" t="s">
         <v>42</v>
       </c>
-      <c r="AE30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>43</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>44</v>
       </c>
       <c r="AH30">
         <v>4</v>
       </c>
       <c r="AI30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5" t="s">
-        <v>193</v>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>134802983</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -5063,106 +5060,103 @@
         <v>1</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U31" t="s">
+        <v>124</v>
+      </c>
+      <c r="V31" t="s">
+        <v>183</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V31" t="s">
-        <v>185</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X31" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH31">
-        <v>2</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR31" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5" t="s">
-        <v>193</v>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>134802983</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -5186,106 +5180,103 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U32" t="s">
+        <v>124</v>
+      </c>
+      <c r="V32" t="s">
+        <v>183</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH32">
+        <v>2</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V32" t="s">
-        <v>185</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH32">
-        <v>2</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5" t="s">
-        <v>193</v>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>134802983</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -5309,106 +5300,103 @@
         <v>1</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U33" t="s">
+        <v>124</v>
+      </c>
+      <c r="V33" t="s">
+        <v>183</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V33" t="s">
-        <v>185</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH33">
-        <v>2</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5" t="s">
-        <v>193</v>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>134802983</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -5432,112 +5420,109 @@
         <v>5</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD34" t="s">
         <v>41</v>
       </c>
-      <c r="X34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD34" t="s">
+      <c r="AE34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF34" t="s">
         <v>42</v>
       </c>
-      <c r="AE34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>43</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>44</v>
       </c>
       <c r="AH34">
         <v>10</v>
       </c>
       <c r="AI34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ34" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5" t="s">
-        <v>193</v>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>134802983</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5561,106 +5546,103 @@
         <v>2</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD35" t="s">
         <v>41</v>
       </c>
-      <c r="X35" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="AE35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF35" t="s">
         <v>42</v>
       </c>
-      <c r="AE35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>43</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>44</v>
       </c>
       <c r="AH35">
         <v>4</v>
       </c>
       <c r="AI35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ35" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5" t="s">
-        <v>193</v>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>134802983</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -5684,109 +5666,106 @@
         <v>1</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD36" t="s">
         <v>41</v>
       </c>
-      <c r="X36" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="AE36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF36" t="s">
         <v>42</v>
       </c>
-      <c r="AE36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>43</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>44</v>
       </c>
       <c r="AH36">
         <v>6</v>
       </c>
       <c r="AI36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR36" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="5" t="s">
-        <v>193</v>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>134802983</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -5810,109 +5789,106 @@
         <v>3</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD37" t="s">
         <v>41</v>
       </c>
-      <c r="X37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD37" t="s">
+      <c r="AE37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF37" t="s">
         <v>42</v>
       </c>
-      <c r="AE37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>43</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>44</v>
       </c>
       <c r="AH37">
         <v>6</v>
       </c>
       <c r="AI37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS37" s="5"/>
-      <c r="AT37" s="5" t="s">
-        <v>193</v>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>134802983</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -5936,109 +5912,106 @@
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD38" t="s">
         <v>41</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="AE38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF38" t="s">
         <v>42</v>
       </c>
-      <c r="AE38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>43</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>44</v>
       </c>
       <c r="AH38">
         <v>6</v>
       </c>
       <c r="AI38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5" t="s">
-        <v>193</v>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>134802983</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -6062,106 +6035,103 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U39" t="s">
+        <v>124</v>
+      </c>
+      <c r="V39" t="s">
+        <v>183</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH39">
+        <v>2</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ39" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V39" t="s">
-        <v>185</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH39">
-        <v>2</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5" t="s">
-        <v>193</v>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>134802983</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -6185,112 +6155,109 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD40" t="s">
         <v>41</v>
       </c>
-      <c r="X40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD40" t="s">
+      <c r="AE40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF40" t="s">
         <v>42</v>
       </c>
-      <c r="AE40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>43</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>44</v>
       </c>
       <c r="AH40">
         <v>8</v>
       </c>
       <c r="AI40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5" t="s">
-        <v>193</v>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>134802983</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -6314,112 +6281,109 @@
         <v>3</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD41" t="s">
         <v>41</v>
       </c>
-      <c r="X41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD41" t="s">
+      <c r="AE41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF41" t="s">
         <v>42</v>
       </c>
-      <c r="AE41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>43</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>44</v>
       </c>
       <c r="AH41">
         <v>8</v>
       </c>
       <c r="AI41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO41" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5" t="s">
-        <v>193</v>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>134802983</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -6443,106 +6407,103 @@
         <v>3</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD42" t="s">
         <v>41</v>
       </c>
-      <c r="X42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD42" t="s">
+      <c r="AE42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF42" t="s">
         <v>42</v>
       </c>
-      <c r="AE42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>43</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>44</v>
       </c>
       <c r="AH42">
         <v>6</v>
       </c>
       <c r="AI42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5" t="s">
-        <v>193</v>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>134802983</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -6566,106 +6527,103 @@
         <v>3</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD43" t="s">
         <v>41</v>
       </c>
-      <c r="X43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AE43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF43" t="s">
         <v>42</v>
       </c>
-      <c r="AE43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>43</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>44</v>
       </c>
       <c r="AH43">
         <v>6</v>
       </c>
       <c r="AI43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO43" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AQ43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5" t="s">
-        <v>193</v>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>134802983</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -6689,106 +6647,103 @@
         <v>1</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U44" t="s">
+        <v>124</v>
+      </c>
+      <c r="V44" t="s">
+        <v>183</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH44">
+        <v>2</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V44" t="s">
-        <v>185</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH44">
-        <v>2</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5" t="s">
-        <v>193</v>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>134802983</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -6812,90 +6767,87 @@
         <v>1</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U45" t="s">
+        <v>124</v>
+      </c>
+      <c r="V45" t="s">
+        <v>183</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH45">
+        <v>2</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ45" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V45" t="s">
-        <v>185</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X45" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH45">
-        <v>2</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ45" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5" t="s">
-        <v>193</v>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AR45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B45">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
